--- a/files/separadas/repeat_p33.xlsx
+++ b/files/separadas/repeat_p33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="221">
   <si>
     <t>p33_cod</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://www.serviciocivil.gov.co/participacion</t>
@@ -1063,13 +1051,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S87"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,31 +1103,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1148,39 +1124,27 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J2" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M2" t="s">
-        <v>223</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -1189,39 +1153,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J3" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M3" t="s">
-        <v>223</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1230,39 +1182,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>223</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -1271,39 +1211,27 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J5" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M5" t="s">
-        <v>223</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1312,39 +1240,27 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M6" t="s">
-        <v>223</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1353,39 +1269,27 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1394,39 +1298,27 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>223</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1435,39 +1327,27 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>223</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1476,39 +1356,27 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M10" t="s">
-        <v>223</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -1517,39 +1385,27 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J11" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M11" t="s">
-        <v>223</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1558,39 +1414,27 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>224</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -1599,39 +1443,27 @@
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J13" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M13" t="s">
-        <v>224</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1640,39 +1472,27 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J14" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M14" t="s">
-        <v>224</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -1681,39 +1501,27 @@
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J15" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M15" t="s">
-        <v>223</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -1722,39 +1530,27 @@
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J16" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M16" t="s">
-        <v>223</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -1763,39 +1559,27 @@
         <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J17" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M17" t="s">
-        <v>223</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G18">
         <v>18</v>
@@ -1804,39 +1588,27 @@
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J18" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M18" t="s">
-        <v>223</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G19">
         <v>19</v>
@@ -1845,39 +1617,27 @@
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J19" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M19" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G20">
         <v>21</v>
@@ -1886,39 +1646,27 @@
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J20" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M20" t="s">
-        <v>223</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G21">
         <v>22</v>
@@ -1927,39 +1675,27 @@
         <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J21" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M21" t="s">
-        <v>223</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G22">
         <v>23</v>
@@ -1968,39 +1704,27 @@
         <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J22" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M22" t="s">
-        <v>223</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -2009,39 +1733,27 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>223</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -2050,39 +1762,27 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>223</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -2091,39 +1791,27 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>223</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -2132,39 +1820,27 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>223</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -2173,39 +1849,27 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>223</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -2214,39 +1878,27 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>223</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -2255,39 +1907,27 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>223</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2296,39 +1936,27 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>223</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -2337,39 +1965,27 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>223</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G32">
         <v>24</v>
@@ -2378,39 +1994,27 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J32" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M32" t="s">
-        <v>224</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G33">
         <v>24</v>
@@ -2419,39 +2023,27 @@
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J33" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M33" t="s">
-        <v>224</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G34">
         <v>24</v>
@@ -2460,39 +2052,27 @@
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J34" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M34" t="s">
-        <v>224</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G35">
         <v>24</v>
@@ -2501,39 +2081,27 @@
         <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J35" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M35" t="s">
-        <v>224</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -2542,39 +2110,27 @@
         <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J36" s="3">
         <v>45033.79946759259</v>
       </c>
       <c r="M36" t="s">
-        <v>223</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G37">
         <v>26</v>
@@ -2583,39 +2139,27 @@
         <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J37" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M37" t="s">
-        <v>223</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G38">
         <v>27</v>
@@ -2624,39 +2168,27 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J38" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M38" t="s">
-        <v>223</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G39">
         <v>27</v>
@@ -2665,39 +2197,27 @@
         <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J39" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M39" t="s">
-        <v>223</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G40">
         <v>28</v>
@@ -2706,39 +2226,27 @@
         <v>57</v>
       </c>
       <c r="I40" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J40" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M40" t="s">
-        <v>223</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G41">
         <v>29</v>
@@ -2747,39 +2255,27 @@
         <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J41" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M41" t="s">
-        <v>223</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G42">
         <v>30</v>
@@ -2788,39 +2284,27 @@
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J42" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M42" t="s">
-        <v>223</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -2829,39 +2313,27 @@
         <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J43" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M43" t="s">
-        <v>223</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G44">
         <v>31</v>
@@ -2870,39 +2342,27 @@
         <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J44" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M44" t="s">
-        <v>223</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G45">
         <v>32</v>
@@ -2911,39 +2371,27 @@
         <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J45" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M45" t="s">
-        <v>223</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G46">
         <v>33</v>
@@ -2952,39 +2400,27 @@
         <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J46" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M46" t="s">
-        <v>223</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G47">
         <v>33</v>
@@ -2993,39 +2429,27 @@
         <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J47" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M47" t="s">
-        <v>223</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G48">
         <v>33</v>
@@ -3034,39 +2458,27 @@
         <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J48" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M48" t="s">
-        <v>223</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G49">
         <v>33</v>
@@ -3075,39 +2487,27 @@
         <v>63</v>
       </c>
       <c r="I49" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J49" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M49" t="s">
-        <v>223</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G50">
         <v>33</v>
@@ -3116,39 +2516,27 @@
         <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J50" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M50" t="s">
-        <v>223</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G51">
         <v>34</v>
@@ -3157,39 +2545,27 @@
         <v>64</v>
       </c>
       <c r="I51" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J51" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M51" t="s">
-        <v>223</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G52">
         <v>34</v>
@@ -3198,39 +2574,27 @@
         <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J52" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M52" t="s">
-        <v>223</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G53">
         <v>37</v>
@@ -3239,39 +2603,27 @@
         <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J53" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M53" t="s">
-        <v>223</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G54">
         <v>38</v>
@@ -3280,39 +2632,27 @@
         <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M54" t="s">
-        <v>223</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G55">
         <v>39</v>
@@ -3321,39 +2661,27 @@
         <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J55" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M55" t="s">
-        <v>223</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G56">
         <v>40</v>
@@ -3362,39 +2690,27 @@
         <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J56" s="3">
         <v>45042.75021990741</v>
       </c>
       <c r="M56" t="s">
-        <v>223</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G57">
         <v>42</v>
@@ -3403,39 +2719,27 @@
         <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J57" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M57" t="s">
-        <v>223</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G58">
         <v>42</v>
@@ -3444,39 +2748,27 @@
         <v>84</v>
       </c>
       <c r="I58" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J58" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M58" t="s">
-        <v>223</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G59">
         <v>44</v>
@@ -3485,39 +2777,27 @@
         <v>87</v>
       </c>
       <c r="I59" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J59" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M59" t="s">
-        <v>223</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G60">
         <v>45</v>
@@ -3526,39 +2806,27 @@
         <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M60" t="s">
-        <v>224</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -3567,39 +2835,27 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>224</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G62">
         <v>46</v>
@@ -3608,39 +2864,27 @@
         <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M62" t="s">
-        <v>223</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -3649,39 +2893,27 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>223</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G64">
         <v>49</v>
@@ -3690,39 +2922,27 @@
         <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J64" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M64" t="s">
-        <v>223</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G65">
         <v>50</v>
@@ -3731,39 +2951,27 @@
         <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J65" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M65" t="s">
-        <v>223</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -3772,39 +2980,27 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>223</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -3813,39 +3009,27 @@
         <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M67" t="s">
-        <v>223</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -3854,39 +3038,27 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M68" t="s">
-        <v>223</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G69">
         <v>51</v>
@@ -3895,39 +3067,27 @@
         <v>95</v>
       </c>
       <c r="I69" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J69" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M69" t="s">
-        <v>223</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G70">
         <v>54</v>
@@ -3936,39 +3096,27 @@
         <v>99</v>
       </c>
       <c r="I70" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J70" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M70" t="s">
-        <v>223</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G71">
         <v>54</v>
@@ -3977,39 +3125,27 @@
         <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M71" t="s">
-        <v>223</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G72">
         <v>54</v>
@@ -4018,39 +3154,27 @@
         <v>99</v>
       </c>
       <c r="I72" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J72" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M72" t="s">
-        <v>223</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G73">
         <v>54</v>
@@ -4059,39 +3183,27 @@
         <v>99</v>
       </c>
       <c r="I73" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J73" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M73" t="s">
-        <v>223</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G74">
         <v>55</v>
@@ -4100,39 +3212,27 @@
         <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J74" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M74" t="s">
-        <v>223</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G75">
         <v>57</v>
@@ -4141,39 +3241,27 @@
         <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J75" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M75" t="s">
-        <v>223</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G76">
         <v>57</v>
@@ -4182,39 +3270,27 @@
         <v>102</v>
       </c>
       <c r="I76" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J76" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M76" t="s">
-        <v>223</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G77">
         <v>57</v>
@@ -4223,39 +3299,27 @@
         <v>102</v>
       </c>
       <c r="I77" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J77" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M77" t="s">
-        <v>223</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G78">
         <v>59</v>
@@ -4264,39 +3328,27 @@
         <v>104</v>
       </c>
       <c r="I78" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J78" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M78" t="s">
-        <v>223</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G79">
         <v>60</v>
@@ -4305,39 +3357,27 @@
         <v>105</v>
       </c>
       <c r="I79" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J79" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M79" t="s">
-        <v>223</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G80">
         <v>61</v>
@@ -4346,39 +3386,27 @@
         <v>106</v>
       </c>
       <c r="I80" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J80" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M80" t="s">
-        <v>223</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G81">
         <v>65</v>
@@ -4387,39 +3415,27 @@
         <v>111</v>
       </c>
       <c r="I81" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J81" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M81" t="s">
-        <v>223</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G82">
         <v>68</v>
@@ -4428,39 +3444,27 @@
         <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M82" t="s">
-        <v>224</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G83">
         <v>71</v>
@@ -4469,39 +3473,27 @@
         <v>119</v>
       </c>
       <c r="I83" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J83" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M83" t="s">
-        <v>223</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G84">
         <v>71</v>
@@ -4510,39 +3502,27 @@
         <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M84" t="s">
-        <v>223</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G85">
         <v>71</v>
@@ -4551,39 +3531,27 @@
         <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J85" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M85" t="s">
-        <v>223</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G86">
         <v>71</v>
@@ -4592,39 +3560,27 @@
         <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J86" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M86" t="s">
-        <v>223</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G87">
         <v>71</v>
@@ -4633,25 +3589,13 @@
         <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J87" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M87" t="s">
-        <v>223</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p33.xlsx
+++ b/files/separadas/repeat_p33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="222">
   <si>
     <t>p33_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://www.serviciocivil.gov.co/participacion</t>
@@ -1051,13 +1054,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,19 +1106,22 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1124,27 +1130,30 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J2" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -1153,27 +1162,30 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J3" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1182,27 +1194,30 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -1211,27 +1226,30 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J5" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1240,27 +1258,30 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1269,27 +1290,30 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1298,27 +1322,30 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1327,27 +1354,30 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1356,27 +1386,30 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -1385,27 +1418,30 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J11" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1414,27 +1450,30 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>221</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -1443,27 +1482,30 @@
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J13" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>221</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1472,27 +1514,30 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J14" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>221</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -1501,27 +1546,30 @@
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J15" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>220</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -1530,27 +1578,30 @@
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J16" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -1559,27 +1610,30 @@
         <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J17" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G18">
         <v>18</v>
@@ -1588,27 +1642,30 @@
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J18" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G19">
         <v>19</v>
@@ -1617,27 +1674,30 @@
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J19" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G20">
         <v>21</v>
@@ -1646,27 +1706,30 @@
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J20" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G21">
         <v>22</v>
@@ -1675,27 +1738,30 @@
         <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J21" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G22">
         <v>23</v>
@@ -1704,27 +1770,30 @@
         <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J22" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1733,27 +1802,30 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1762,27 +1834,30 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -1791,27 +1866,30 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1820,27 +1898,30 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -1849,27 +1930,30 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -1878,27 +1962,30 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -1907,27 +1994,30 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -1936,27 +2026,30 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -1965,27 +2058,30 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G32">
         <v>24</v>
@@ -1994,27 +2090,30 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J32" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>221</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G33">
         <v>24</v>
@@ -2023,27 +2122,30 @@
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J33" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>221</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G34">
         <v>24</v>
@@ -2052,27 +2154,30 @@
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J34" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>221</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G35">
         <v>24</v>
@@ -2081,27 +2186,30 @@
         <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J35" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>221</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -2110,27 +2218,30 @@
         <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J36" s="3">
         <v>45033.79946759259</v>
       </c>
       <c r="M36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G37">
         <v>26</v>
@@ -2139,27 +2250,30 @@
         <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J37" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G38">
         <v>27</v>
@@ -2168,27 +2282,30 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J38" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G39">
         <v>27</v>
@@ -2197,27 +2314,30 @@
         <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J39" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M39" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G40">
         <v>28</v>
@@ -2226,27 +2346,30 @@
         <v>57</v>
       </c>
       <c r="I40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J40" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G41">
         <v>29</v>
@@ -2255,27 +2378,30 @@
         <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J41" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M41" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G42">
         <v>30</v>
@@ -2284,27 +2410,30 @@
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J42" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -2313,27 +2442,30 @@
         <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J43" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M43" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G44">
         <v>31</v>
@@ -2342,27 +2474,30 @@
         <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J44" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M44" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G45">
         <v>32</v>
@@ -2371,27 +2506,30 @@
         <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J45" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M45" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G46">
         <v>33</v>
@@ -2400,27 +2538,30 @@
         <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J46" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G47">
         <v>33</v>
@@ -2429,27 +2570,30 @@
         <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J47" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M47" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G48">
         <v>33</v>
@@ -2458,27 +2602,30 @@
         <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J48" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G49">
         <v>33</v>
@@ -2487,27 +2634,30 @@
         <v>63</v>
       </c>
       <c r="I49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J49" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M49" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G50">
         <v>33</v>
@@ -2516,27 +2666,30 @@
         <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J50" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G51">
         <v>34</v>
@@ -2545,27 +2698,30 @@
         <v>64</v>
       </c>
       <c r="I51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J51" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M51" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G52">
         <v>34</v>
@@ -2574,27 +2730,30 @@
         <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J52" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G53">
         <v>37</v>
@@ -2603,27 +2762,30 @@
         <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J53" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M53" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G54">
         <v>38</v>
@@ -2632,27 +2794,30 @@
         <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J54" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M54" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G55">
         <v>39</v>
@@ -2661,27 +2826,30 @@
         <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J55" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M55" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G56">
         <v>40</v>
@@ -2690,27 +2858,30 @@
         <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J56" s="3">
         <v>45042.75021990741</v>
       </c>
       <c r="M56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G57">
         <v>42</v>
@@ -2719,27 +2890,30 @@
         <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J57" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M57" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G58">
         <v>42</v>
@@ -2748,27 +2922,30 @@
         <v>84</v>
       </c>
       <c r="I58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J58" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G59">
         <v>44</v>
@@ -2777,27 +2954,30 @@
         <v>87</v>
       </c>
       <c r="I59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J59" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M59" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G60">
         <v>45</v>
@@ -2806,27 +2986,30 @@
         <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M60" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>221</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -2835,27 +3018,30 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>221</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G62">
         <v>46</v>
@@ -2864,27 +3050,30 @@
         <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M62" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -2893,27 +3082,30 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G64">
         <v>49</v>
@@ -2922,27 +3114,30 @@
         <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J64" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M64" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G65">
         <v>50</v>
@@ -2951,27 +3146,30 @@
         <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J65" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M65" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -2980,27 +3178,30 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -3009,27 +3210,30 @@
         <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M67" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -3038,27 +3242,30 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M68" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G69">
         <v>51</v>
@@ -3067,27 +3274,30 @@
         <v>95</v>
       </c>
       <c r="I69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J69" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M69" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G70">
         <v>54</v>
@@ -3096,27 +3306,30 @@
         <v>99</v>
       </c>
       <c r="I70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J70" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M70" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G71">
         <v>54</v>
@@ -3125,27 +3338,30 @@
         <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M71" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G72">
         <v>54</v>
@@ -3154,27 +3370,30 @@
         <v>99</v>
       </c>
       <c r="I72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J72" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M72" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G73">
         <v>54</v>
@@ -3183,27 +3402,30 @@
         <v>99</v>
       </c>
       <c r="I73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J73" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M73" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G74">
         <v>55</v>
@@ -3212,27 +3434,30 @@
         <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J74" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M74" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G75">
         <v>57</v>
@@ -3241,27 +3466,30 @@
         <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J75" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M75" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G76">
         <v>57</v>
@@ -3270,27 +3498,30 @@
         <v>102</v>
       </c>
       <c r="I76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J76" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M76" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G77">
         <v>57</v>
@@ -3299,27 +3530,30 @@
         <v>102</v>
       </c>
       <c r="I77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J77" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M77" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G78">
         <v>59</v>
@@ -3328,27 +3562,30 @@
         <v>104</v>
       </c>
       <c r="I78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J78" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M78" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G79">
         <v>60</v>
@@ -3357,27 +3594,30 @@
         <v>105</v>
       </c>
       <c r="I79" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J79" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G80">
         <v>61</v>
@@ -3386,27 +3626,30 @@
         <v>106</v>
       </c>
       <c r="I80" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J80" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M80" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G81">
         <v>65</v>
@@ -3415,27 +3658,30 @@
         <v>111</v>
       </c>
       <c r="I81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J81" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M81" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G82">
         <v>68</v>
@@ -3444,27 +3690,30 @@
         <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M82" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>221</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G83">
         <v>71</v>
@@ -3473,27 +3722,30 @@
         <v>119</v>
       </c>
       <c r="I83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J83" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M83" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G84">
         <v>71</v>
@@ -3502,27 +3754,30 @@
         <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M84" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G85">
         <v>71</v>
@@ -3531,27 +3786,30 @@
         <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J85" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M85" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G86">
         <v>71</v>
@@ -3560,27 +3818,30 @@
         <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J86" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M86" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>220</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G87">
         <v>71</v>
@@ -3589,13 +3850,16 @@
         <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J87" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M87" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p33.xlsx
+++ b/files/separadas/repeat_p33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="223">
   <si>
     <t>p33_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1054,13 +1057,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,19 +1112,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1130,30 +1136,33 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J2" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -1162,30 +1171,33 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J3" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1194,30 +1206,33 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -1226,30 +1241,33 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J5" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1258,30 +1276,33 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1290,30 +1311,33 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1322,30 +1346,33 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1354,30 +1381,33 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1386,30 +1416,33 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -1418,30 +1451,33 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J11" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1450,30 +1486,33 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -1482,30 +1521,33 @@
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J13" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1514,30 +1556,33 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J14" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -1546,30 +1591,33 @@
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J15" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -1578,30 +1626,33 @@
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J16" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -1610,30 +1661,33 @@
         <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J17" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G18">
         <v>18</v>
@@ -1642,30 +1696,33 @@
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J18" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G19">
         <v>19</v>
@@ -1674,30 +1731,33 @@
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J19" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G20">
         <v>21</v>
@@ -1706,30 +1766,33 @@
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J20" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G21">
         <v>22</v>
@@ -1738,30 +1801,33 @@
         <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J21" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G22">
         <v>23</v>
@@ -1770,30 +1836,33 @@
         <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J22" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1802,30 +1871,33 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1834,30 +1906,33 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -1866,30 +1941,33 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1898,30 +1976,33 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -1930,30 +2011,33 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -1962,30 +2046,33 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -1994,30 +2081,33 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2026,30 +2116,33 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -2058,30 +2151,33 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G32">
         <v>24</v>
@@ -2090,30 +2186,33 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J32" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G33">
         <v>24</v>
@@ -2122,30 +2221,33 @@
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J33" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G34">
         <v>24</v>
@@ -2154,30 +2256,33 @@
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J34" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M34" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G35">
         <v>24</v>
@@ -2186,30 +2291,33 @@
         <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J35" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -2218,30 +2326,33 @@
         <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J36" s="3">
         <v>45033.79946759259</v>
       </c>
       <c r="M36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G37">
         <v>26</v>
@@ -2250,30 +2361,33 @@
         <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J37" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G38">
         <v>27</v>
@@ -2282,30 +2396,33 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J38" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G39">
         <v>27</v>
@@ -2314,30 +2431,33 @@
         <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J39" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G40">
         <v>28</v>
@@ -2346,30 +2466,33 @@
         <v>57</v>
       </c>
       <c r="I40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J40" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G41">
         <v>29</v>
@@ -2378,30 +2501,33 @@
         <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J41" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G42">
         <v>30</v>
@@ -2410,30 +2536,33 @@
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J42" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -2442,30 +2571,33 @@
         <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J43" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G44">
         <v>31</v>
@@ -2474,30 +2606,33 @@
         <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J44" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G45">
         <v>32</v>
@@ -2506,30 +2641,33 @@
         <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J45" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G46">
         <v>33</v>
@@ -2538,30 +2676,33 @@
         <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J46" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G47">
         <v>33</v>
@@ -2570,30 +2711,33 @@
         <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J47" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G48">
         <v>33</v>
@@ -2602,30 +2746,33 @@
         <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J48" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G49">
         <v>33</v>
@@ -2634,30 +2781,33 @@
         <v>63</v>
       </c>
       <c r="I49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J49" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G50">
         <v>33</v>
@@ -2666,30 +2816,33 @@
         <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J50" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G51">
         <v>34</v>
@@ -2698,30 +2851,33 @@
         <v>64</v>
       </c>
       <c r="I51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J51" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G52">
         <v>34</v>
@@ -2730,30 +2886,33 @@
         <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G53">
         <v>37</v>
@@ -2762,30 +2921,33 @@
         <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J53" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G54">
         <v>38</v>
@@ -2794,30 +2956,33 @@
         <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J54" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G55">
         <v>39</v>
@@ -2826,30 +2991,33 @@
         <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J55" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G56">
         <v>40</v>
@@ -2858,30 +3026,33 @@
         <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J56" s="3">
         <v>45042.75021990741</v>
       </c>
       <c r="M56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G57">
         <v>42</v>
@@ -2890,30 +3061,33 @@
         <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J57" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G58">
         <v>42</v>
@@ -2922,30 +3096,33 @@
         <v>84</v>
       </c>
       <c r="I58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J58" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G59">
         <v>44</v>
@@ -2954,30 +3131,33 @@
         <v>87</v>
       </c>
       <c r="I59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J59" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G60">
         <v>45</v>
@@ -2986,30 +3166,33 @@
         <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -3018,30 +3201,33 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G62">
         <v>46</v>
@@ -3050,30 +3236,33 @@
         <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -3082,30 +3271,33 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G64">
         <v>49</v>
@@ -3114,30 +3306,33 @@
         <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J64" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G65">
         <v>50</v>
@@ -3146,30 +3341,33 @@
         <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J65" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M65" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -3178,30 +3376,33 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -3210,30 +3411,33 @@
         <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -3242,30 +3446,33 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G69">
         <v>51</v>
@@ -3274,30 +3481,33 @@
         <v>95</v>
       </c>
       <c r="I69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J69" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G70">
         <v>54</v>
@@ -3306,30 +3516,33 @@
         <v>99</v>
       </c>
       <c r="I70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J70" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G71">
         <v>54</v>
@@ -3338,30 +3551,33 @@
         <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G72">
         <v>54</v>
@@ -3370,30 +3586,33 @@
         <v>99</v>
       </c>
       <c r="I72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J72" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G73">
         <v>54</v>
@@ -3402,30 +3621,33 @@
         <v>99</v>
       </c>
       <c r="I73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J73" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G74">
         <v>55</v>
@@ -3434,30 +3656,33 @@
         <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J74" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G75">
         <v>57</v>
@@ -3466,30 +3691,33 @@
         <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J75" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G76">
         <v>57</v>
@@ -3498,30 +3726,33 @@
         <v>102</v>
       </c>
       <c r="I76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J76" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G77">
         <v>57</v>
@@ -3530,30 +3761,33 @@
         <v>102</v>
       </c>
       <c r="I77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J77" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G78">
         <v>59</v>
@@ -3562,30 +3796,33 @@
         <v>104</v>
       </c>
       <c r="I78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J78" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G79">
         <v>60</v>
@@ -3594,30 +3831,33 @@
         <v>105</v>
       </c>
       <c r="I79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J79" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G80">
         <v>61</v>
@@ -3626,30 +3866,33 @@
         <v>106</v>
       </c>
       <c r="I80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J80" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G81">
         <v>64</v>
@@ -3658,30 +3901,33 @@
         <v>111</v>
       </c>
       <c r="I81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J81" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G82">
         <v>67</v>
@@ -3690,30 +3936,33 @@
         <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G83">
         <v>70</v>
@@ -3722,30 +3971,33 @@
         <v>119</v>
       </c>
       <c r="I83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J83" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G84">
         <v>70</v>
@@ -3754,30 +4006,33 @@
         <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G85">
         <v>70</v>
@@ -3786,30 +4041,33 @@
         <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J85" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G86">
         <v>70</v>
@@ -3818,30 +4076,33 @@
         <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J86" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G87">
         <v>70</v>
@@ -3850,15 +4111,18 @@
         <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J87" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p33.xlsx
+++ b/files/separadas/repeat_p33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="224">
   <si>
     <t>p33_cod</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1057,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,19 +1118,22 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1136,13 +1142,13 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J2" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="M2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1150,19 +1156,22 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -1171,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J3" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1185,19 +1194,22 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1206,13 +1218,13 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1220,19 +1232,22 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -1241,13 +1256,13 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J5" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1255,19 +1270,22 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1276,13 +1294,13 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1290,19 +1308,22 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1311,13 +1332,13 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1325,19 +1346,22 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1346,13 +1370,13 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1360,19 +1384,22 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1381,13 +1408,13 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1395,19 +1422,22 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1416,13 +1446,13 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1430,19 +1460,22 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -1451,13 +1484,13 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J11" s="3">
         <v>45029.81189814815</v>
       </c>
       <c r="M11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1465,19 +1498,22 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -1486,13 +1522,13 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1500,19 +1536,22 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -1521,13 +1560,13 @@
         <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J13" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1535,19 +1574,22 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1556,13 +1598,13 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J14" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1570,19 +1612,22 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -1591,13 +1636,13 @@
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J15" s="3">
         <v>45029.8639699074</v>
       </c>
       <c r="M15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1605,19 +1650,22 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G16">
         <v>16</v>
@@ -1626,13 +1674,13 @@
         <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J16" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1640,19 +1688,22 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G17">
         <v>17</v>
@@ -1661,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J17" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1675,19 +1726,22 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G18">
         <v>18</v>
@@ -1696,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J18" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1710,19 +1764,22 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G19">
         <v>19</v>
@@ -1731,13 +1788,13 @@
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J19" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1745,19 +1802,22 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G20">
         <v>21</v>
@@ -1766,13 +1826,13 @@
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J20" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1780,19 +1840,22 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G21">
         <v>22</v>
@@ -1801,13 +1864,13 @@
         <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J21" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1815,19 +1878,22 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G22">
         <v>23</v>
@@ -1836,13 +1902,13 @@
         <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J22" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1850,19 +1916,22 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1871,13 +1940,13 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1885,19 +1954,22 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1906,13 +1978,13 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1920,19 +1992,22 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -1941,13 +2016,13 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1955,19 +2030,22 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1976,13 +2054,13 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1990,19 +2068,22 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -2011,13 +2092,13 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2025,19 +2106,22 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -2046,13 +2130,13 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2060,19 +2144,22 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -2081,13 +2168,13 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2095,19 +2182,22 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2116,13 +2206,13 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2130,19 +2220,22 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -2151,13 +2244,13 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2165,19 +2258,22 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G32">
         <v>24</v>
@@ -2186,13 +2282,13 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J32" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2200,19 +2296,22 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G33">
         <v>24</v>
@@ -2221,13 +2320,13 @@
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J33" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2235,19 +2334,22 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G34">
         <v>24</v>
@@ -2256,13 +2358,13 @@
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J34" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2270,19 +2372,22 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G35">
         <v>24</v>
@@ -2291,13 +2396,13 @@
         <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J35" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2305,19 +2410,22 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G36">
         <v>25</v>
@@ -2326,13 +2434,13 @@
         <v>52</v>
       </c>
       <c r="I36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J36" s="3">
         <v>45033.79946759259</v>
       </c>
       <c r="M36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2340,19 +2448,22 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G37">
         <v>26</v>
@@ -2361,13 +2472,13 @@
         <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J37" s="3">
         <v>45033.88635416667</v>
       </c>
       <c r="M37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2375,19 +2486,22 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G38">
         <v>27</v>
@@ -2396,13 +2510,13 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J38" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2410,19 +2524,22 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G39">
         <v>27</v>
@@ -2431,13 +2548,13 @@
         <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J39" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2445,19 +2562,22 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G40">
         <v>28</v>
@@ -2466,13 +2586,13 @@
         <v>57</v>
       </c>
       <c r="I40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J40" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2480,19 +2600,22 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G41">
         <v>29</v>
@@ -2501,13 +2624,13 @@
         <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J41" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2515,19 +2638,22 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G42">
         <v>30</v>
@@ -2536,13 +2662,13 @@
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J42" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -2550,19 +2676,22 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -2571,13 +2700,13 @@
         <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J43" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -2585,19 +2714,22 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G44">
         <v>31</v>
@@ -2606,13 +2738,13 @@
         <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J44" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -2620,19 +2752,22 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G45">
         <v>32</v>
@@ -2641,13 +2776,13 @@
         <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J45" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2655,19 +2790,22 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G46">
         <v>33</v>
@@ -2676,13 +2814,13 @@
         <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2690,19 +2828,22 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G47">
         <v>33</v>
@@ -2711,13 +2852,13 @@
         <v>63</v>
       </c>
       <c r="I47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2725,19 +2866,22 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G48">
         <v>33</v>
@@ -2746,13 +2890,13 @@
         <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -2760,19 +2904,22 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G49">
         <v>33</v>
@@ -2781,13 +2928,13 @@
         <v>63</v>
       </c>
       <c r="I49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -2795,19 +2942,22 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G50">
         <v>33</v>
@@ -2816,13 +2966,13 @@
         <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J50" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -2830,19 +2980,22 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G51">
         <v>34</v>
@@ -2851,13 +3004,13 @@
         <v>64</v>
       </c>
       <c r="I51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J51" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -2865,19 +3018,22 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G52">
         <v>34</v>
@@ -2886,13 +3042,13 @@
         <v>64</v>
       </c>
       <c r="I52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J52" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -2900,19 +3056,22 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G53">
         <v>37</v>
@@ -2921,13 +3080,13 @@
         <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J53" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -2935,19 +3094,22 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G54">
         <v>38</v>
@@ -2956,13 +3118,13 @@
         <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J54" s="3">
         <v>45041.88762731481</v>
       </c>
       <c r="M54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -2970,19 +3132,22 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G55">
         <v>39</v>
@@ -2991,13 +3156,13 @@
         <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J55" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3005,19 +3170,22 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G56">
         <v>40</v>
@@ -3026,13 +3194,13 @@
         <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J56" s="3">
         <v>45042.75021990741</v>
       </c>
       <c r="M56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3040,19 +3208,22 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G57">
         <v>42</v>
@@ -3061,13 +3232,13 @@
         <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J57" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3075,19 +3246,22 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G58">
         <v>42</v>
@@ -3096,13 +3270,13 @@
         <v>84</v>
       </c>
       <c r="I58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J58" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M58" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3110,19 +3284,22 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G59">
         <v>44</v>
@@ -3131,13 +3308,13 @@
         <v>87</v>
       </c>
       <c r="I59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J59" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3145,19 +3322,22 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G60">
         <v>45</v>
@@ -3166,13 +3346,13 @@
         <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M60" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3180,19 +3360,22 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -3201,13 +3384,13 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3215,19 +3398,22 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G62">
         <v>46</v>
@@ -3236,13 +3422,13 @@
         <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3250,19 +3436,22 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -3271,13 +3460,13 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3285,19 +3474,22 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G64">
         <v>49</v>
@@ -3306,13 +3498,13 @@
         <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J64" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3320,19 +3512,22 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G65">
         <v>50</v>
@@ -3341,13 +3536,13 @@
         <v>94</v>
       </c>
       <c r="I65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J65" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3355,19 +3550,22 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -3376,13 +3574,13 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3390,19 +3588,22 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G67">
         <v>50</v>
@@ -3411,13 +3612,13 @@
         <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3425,19 +3626,22 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -3446,13 +3650,13 @@
         <v>94</v>
       </c>
       <c r="I68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -3460,19 +3664,22 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G69">
         <v>51</v>
@@ -3481,13 +3688,13 @@
         <v>95</v>
       </c>
       <c r="I69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J69" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -3495,19 +3702,22 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G70">
         <v>54</v>
@@ -3516,13 +3726,13 @@
         <v>99</v>
       </c>
       <c r="I70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J70" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -3530,19 +3740,22 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G71">
         <v>54</v>
@@ -3551,13 +3764,13 @@
         <v>99</v>
       </c>
       <c r="I71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -3565,19 +3778,22 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G72">
         <v>54</v>
@@ -3586,13 +3802,13 @@
         <v>99</v>
       </c>
       <c r="I72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J72" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -3600,19 +3816,22 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G73">
         <v>54</v>
@@ -3621,13 +3840,13 @@
         <v>99</v>
       </c>
       <c r="I73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J73" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -3635,19 +3854,22 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G74">
         <v>55</v>
@@ -3656,13 +3878,13 @@
         <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J74" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -3670,19 +3892,22 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G75">
         <v>57</v>
@@ -3691,13 +3916,13 @@
         <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J75" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -3705,19 +3930,22 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G76">
         <v>57</v>
@@ -3726,13 +3954,13 @@
         <v>102</v>
       </c>
       <c r="I76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J76" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -3740,19 +3968,22 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G77">
         <v>57</v>
@@ -3761,13 +3992,13 @@
         <v>102</v>
       </c>
       <c r="I77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J77" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M77" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -3775,19 +4006,22 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G78">
         <v>59</v>
@@ -3796,13 +4030,13 @@
         <v>104</v>
       </c>
       <c r="I78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J78" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -3810,19 +4044,22 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G79">
         <v>60</v>
@@ -3831,13 +4068,13 @@
         <v>105</v>
       </c>
       <c r="I79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J79" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -3845,19 +4082,22 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G80">
         <v>61</v>
@@ -3866,13 +4106,13 @@
         <v>106</v>
       </c>
       <c r="I80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J80" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -3880,19 +4120,22 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G81">
         <v>64</v>
@@ -3901,13 +4144,13 @@
         <v>111</v>
       </c>
       <c r="I81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J81" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -3915,19 +4158,22 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G82">
         <v>67</v>
@@ -3936,13 +4182,13 @@
         <v>115</v>
       </c>
       <c r="I82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -3950,19 +4196,22 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G83">
         <v>70</v>
@@ -3971,13 +4220,13 @@
         <v>119</v>
       </c>
       <c r="I83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J83" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -3985,19 +4234,22 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G84">
         <v>70</v>
@@ -4006,13 +4258,13 @@
         <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4020,19 +4272,22 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G85">
         <v>70</v>
@@ -4041,13 +4296,13 @@
         <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J85" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -4055,19 +4310,22 @@
       <c r="Q85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G86">
         <v>70</v>
@@ -4076,13 +4334,13 @@
         <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J86" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -4090,19 +4348,22 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G87">
         <v>70</v>
@@ -4111,18 +4372,21 @@
         <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J87" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
       <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p33.xlsx
+++ b/files/separadas/repeat_p33.xlsx
@@ -574,13 +574,13 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">

--- a/files/separadas/repeat_p33.xlsx
+++ b/files/separadas/repeat_p33.xlsx
@@ -2196,7 +2196,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37">
@@ -3156,7 +3156,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57">
@@ -3828,7 +3828,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71">
@@ -3876,7 +3876,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
@@ -3924,7 +3924,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="73">
@@ -3972,7 +3972,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="74">
@@ -4212,7 +4212,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="79">
@@ -4308,7 +4308,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="81">
